--- a/INTLINE/data/566/PHSA/FOREIGN/Highlights of the Philippine Export and Import Statistics_historical.xlsx
+++ b/INTLINE/data/566/PHSA/FOREIGN/Highlights of the Philippine Export and Import Statistics_historical.xlsx
@@ -1176,7 +1176,10 @@
         <v>10372.673526</v>
       </c>
       <c r="CJ2">
-        <v>12174.867917</v>
+        <v>12182.568317</v>
+      </c>
+      <c r="CK2">
+        <v>10901.72557</v>
       </c>
     </row>
     <row r="3" spans="1:89">
@@ -1442,7 +1445,10 @@
         <v>6200.981978</v>
       </c>
       <c r="CJ3">
-        <v>7170.937302</v>
+        <v>7175.329597</v>
+      </c>
+      <c r="CK3">
+        <v>6128.575949</v>
       </c>
     </row>
   </sheetData>
